--- a/螺纹/eta/螺纹期货价格_月度数据.xlsx
+++ b/螺纹/eta/螺纹期货价格_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3069.0528</v>
+        <v>3372.9153</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3061.6667</v>
+        <v>3066.5</v>
       </c>
       <c r="C3" t="n">
-        <v>3070.2525</v>
+        <v>3111.2297</v>
       </c>
     </row>
     <row r="4">
